--- a/tests/data.gui/test/nmr/dsn.1/kev.nmr.constants.data.xlsx
+++ b/tests/data.gui/test/nmr/dsn.1/kev.nmr.constants.data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t xml:space="preserve">Mc</t>
   </si>
@@ -293,16 +293,19 @@
     <t xml:space="preserve">3.34375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130217644241759</t>
+    <t xml:space="preserve">0.130217644226285</t>
   </si>
   <si>
     <t xml:space="preserve">3.169921875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.208066625716732</t>
+    <t xml:space="preserve">0.208066625697787</t>
   </si>
   <si>
     <t xml:space="preserve">Adj. R^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.991361</t>
   </si>
 </sst>
 </file>
@@ -778,12 +781,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.866074450361412</v>
+        <v>0.866074450326879</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.866074450361412</v>
+        <v>0.866074450326879</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -809,8 +812,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.991361027304358</v>
+      <c r="A2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -858,7 +861,7 @@
         <v>9.97574554752848</v>
       </c>
       <c r="E2" t="n">
-        <v>10.5068494732732</v>
+        <v>10.5068494732731</v>
       </c>
     </row>
     <row r="3">
@@ -872,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0123405179563361</v>
+        <v>0.0123405179563358</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0215501752352048</v>
+        <v>0.0215501752352044</v>
       </c>
     </row>
   </sheetData>
@@ -1633,13 +1636,13 @@
         <v>0.01</v>
       </c>
       <c r="B2" t="n">
-        <v>4.33513344306265e-22</v>
+        <v>0.000000000000000000000433513344306265</v>
       </c>
       <c r="C2" t="n">
-        <v>9.56648666283432e-21</v>
+        <v>0.00000000000000000000956648666283432</v>
       </c>
       <c r="D2" t="n">
-        <v>2.77924488942876e-42</v>
+        <v>0.00000000000000000000000000000000000000000277924488942876</v>
       </c>
     </row>
     <row r="3">
@@ -1647,13 +1650,13 @@
         <v>0.00919619515267739</v>
       </c>
       <c r="B3" t="n">
-        <v>3.96078177440449e-05</v>
+        <v>0.0000396078177440449</v>
       </c>
       <c r="C3" t="n">
         <v>0.000803783512950358</v>
       </c>
       <c r="D3" t="n">
-        <v>2.13349624928165e-08</v>
+        <v>0.0000000213349624928165</v>
       </c>
     </row>
     <row r="4">
@@ -1667,7 +1670,7 @@
         <v>0.00198362619389386</v>
       </c>
       <c r="D4" t="n">
-        <v>1.49063618492926e-07</v>
+        <v>0.000000149063618492926</v>
       </c>
     </row>
     <row r="5">
@@ -1681,7 +1684,7 @@
         <v>0.00349826855416663</v>
       </c>
       <c r="D5" t="n">
-        <v>5.71659370768151e-07</v>
+        <v>0.000000571659370768151</v>
       </c>
     </row>
     <row r="6">
@@ -1695,7 +1698,7 @@
         <v>0.00525966221440632</v>
       </c>
       <c r="D6" t="n">
-        <v>1.77292658706096e-06</v>
+        <v>0.00000177292658706096</v>
       </c>
     </row>
     <row r="7">
@@ -1709,7 +1712,7 @@
         <v>0.0069482267434778</v>
       </c>
       <c r="D7" t="n">
-        <v>4.81174795971838e-06</v>
+        <v>0.00000481174795971836</v>
       </c>
     </row>
     <row r="8">
@@ -1723,21 +1726,21 @@
         <v>0.00850661825476786</v>
       </c>
       <c r="D8" t="n">
-        <v>1.48630840882159e-05</v>
+        <v>0.0000148630840882159</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.00065473184413038</v>
+        <v>0.000654731844130379</v>
       </c>
       <c r="B9" t="n">
         <v>0.00644032715124648</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00930510746298621</v>
+        <v>0.00930510746298619</v>
       </c>
       <c r="D9" t="n">
-        <v>4.01606928838718e-05</v>
+        <v>0.0000401606928838718</v>
       </c>
     </row>
     <row r="10">
@@ -1751,7 +1754,7 @@
         <v>0.00961557104723991</v>
       </c>
       <c r="D10" t="n">
-        <v>9.80442804738923e-05</v>
+        <v>0.0000980442804738923</v>
       </c>
     </row>
     <row r="11">
@@ -1784,7 +1787,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.53135260306281e-05</v>
+        <v>0.0000853135260306281</v>
       </c>
       <c r="B13" t="n">
         <v>0.0509256833731949</v>
@@ -1798,7 +1801,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.43210065029655e-05</v>
+        <v>0.0000643210065029655</v>
       </c>
       <c r="B14" t="n">
         <v>0.066991890864538</v>
@@ -1812,7 +1815,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.94943229544981e-05</v>
+        <v>0.0000494943229544981</v>
       </c>
       <c r="B15" t="n">
         <v>0.0861327457964888</v>
@@ -1826,7 +1829,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.55044513306646e-05</v>
+        <v>0.0000455044513306646</v>
       </c>
       <c r="B16" t="n">
         <v>0.0932989011728124</v>
@@ -1840,7 +1843,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.78546529494348e-05</v>
+        <v>0.0000378546529494348</v>
       </c>
       <c r="B17" t="n">
         <v>0.11100000787296</v>
@@ -1854,7 +1857,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.8296255174347e-05</v>
+        <v>0.000028296255174347</v>
       </c>
       <c r="B18" t="n">
         <v>0.14550621365665</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.97679795456273e-05</v>
+        <v>0.0000197679795456273</v>
       </c>
       <c r="B19" t="n">
         <v>0.201559710412313</v>
@@ -1882,7 +1885,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.33652998487944e-05</v>
+        <v>0.0000133652998487944</v>
       </c>
       <c r="B20" t="n">
         <v>0.284399106878934</v>
@@ -1896,7 +1899,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8.9241213771786e-06</v>
+        <v>0.0000089241213771786</v>
       </c>
       <c r="B21" t="n">
         <v>0.400073775178815</v>
@@ -1910,7 +1913,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.06287776500676e-06</v>
+        <v>0.00000606287776500676</v>
       </c>
       <c r="B22" t="n">
         <v>0.546690200832882</v>
@@ -1924,7 +1927,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.05403531215436e-06</v>
+        <v>0.00000505403531215436</v>
       </c>
       <c r="B23" t="n">
         <v>0.63010367383892</v>
@@ -1938,7 +1941,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.05519219057473e-06</v>
+        <v>0.00000405519219057473</v>
       </c>
       <c r="B24" t="n">
         <v>0.745036963580366</v>
@@ -1952,7 +1955,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.11315219114642e-06</v>
+        <v>0.00000311315219114642</v>
       </c>
       <c r="B25" t="n">
         <v>0.905588650870207</v>
@@ -1966,7 +1969,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.25667426689212e-06</v>
+        <v>0.00000225667426689212</v>
       </c>
       <c r="B26" t="n">
         <v>1.13869442191218</v>
@@ -1980,7 +1983,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.56098678807896e-06</v>
+        <v>0.00000156098678807896</v>
       </c>
       <c r="B27" t="n">
         <v>1.46475690678911</v>
@@ -1994,7 +1997,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.03082851897737e-06</v>
+        <v>0.00000103082851897737</v>
       </c>
       <c r="B28" t="n">
         <v>1.92144540026349</v>
@@ -2008,7 +2011,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.56816832882365e-07</v>
+        <v>0.000000656816832882365</v>
       </c>
       <c r="B29" t="n">
         <v>2.54800947774052</v>
@@ -2022,7 +2025,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.13698851515847e-07</v>
+        <v>0.000000313698851515847</v>
       </c>
       <c r="B30" t="n">
         <v>3.95622137942239</v>
@@ -2036,7 +2039,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.47790311971573e-07</v>
+        <v>0.000000147790311971573</v>
       </c>
       <c r="B31" t="n">
         <v>6.05906656968962</v>
@@ -2050,7 +2053,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8.79754174398043e-08</v>
+        <v>0.0000000879754174398043</v>
       </c>
       <c r="B32" t="n">
         <v>8.05269894464429</v>
@@ -2064,7 +2067,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.55483361684851e-08</v>
+        <v>0.0000000555483361684851</v>
       </c>
       <c r="B33" t="n">
         <v>10.3123175491669</v>
@@ -2078,7 +2081,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3.64492108240523e-08</v>
+        <v>0.0000000364492108240523</v>
       </c>
       <c r="B34" t="n">
         <v>12.8948539439096</v>
@@ -2246,7 +2249,7 @@
         <v>9.75238481820359</v>
       </c>
       <c r="K2" t="n">
-        <v>9.87861816798216</v>
+        <v>9.87861816798214</v>
       </c>
       <c r="L2" t="n">
         <v>9.93753549889862</v>
@@ -2261,10 +2264,10 @@
         <v>9.98018935748616</v>
       </c>
       <c r="P2" t="n">
-        <v>9.98866667549106</v>
+        <v>9.98866667549107</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.99708185673958</v>
+        <v>9.99708185673959</v>
       </c>
       <c r="R2" t="n">
         <v>9.99995746111664</v>
@@ -2312,7 +2315,7 @@
         <v>10.3613321396367</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.4018695277681</v>
+        <v>10.401869527768</v>
       </c>
       <c r="AH2" t="n">
         <v>10.423801984766</v>
@@ -2335,13 +2338,13 @@
         <v>78</v>
       </c>
       <c r="D3" t="n">
-        <v>3.5527136788005e-15</v>
+        <v>0.0000000000000035527136788005</v>
       </c>
       <c r="E3" t="n">
         <v>0.0363616096835706</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0640427172372817</v>
+        <v>-0.0640427172372799</v>
       </c>
       <c r="G3" t="n">
         <v>-0.122129523780318</v>
@@ -2350,49 +2353,49 @@
         <v>-0.12514830315342</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0442321346341927</v>
+        <v>-0.044232134634191</v>
       </c>
       <c r="J3" t="n">
-        <v>0.054184818203586</v>
+        <v>0.0541848182035878</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0852181679821609</v>
+        <v>0.0852181679821449</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0546354988986195</v>
+        <v>0.0546354988986213</v>
       </c>
       <c r="M3" t="n">
-        <v>0.035383216938687</v>
+        <v>0.0353832169386887</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0193384692806369</v>
+        <v>0.0193384692806386</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0115893574861587</v>
+        <v>0.0115893574861605</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00476667549106402</v>
+        <v>0.0047666754910658</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.00211814326041626</v>
+        <v>-0.00211814326041448</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.00474253888336307</v>
+        <v>-0.00474253888336129</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.00876088045354173</v>
+        <v>-0.00876088045353995</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.0166906310698316</v>
+        <v>-0.0166906310698334</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.0231742718157193</v>
+        <v>-0.0231742718157175</v>
       </c>
       <c r="V3" t="n">
         <v>-0.0237750509224757</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.0263192272613182</v>
+        <v>-0.0263192272613164</v>
       </c>
       <c r="X3" t="n">
         <v>-0.0247546469771027</v>
@@ -2407,31 +2410,31 @@
         <v>-0.00720365152531421</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.000678252443476524</v>
+        <v>-0.0006782524434783</v>
       </c>
       <c r="AC3" t="n">
         <v>0.0128549074551554</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.022801676007834</v>
+        <v>0.0228016760078322</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.034371104585686</v>
+        <v>0.0343711045856843</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0434321396367423</v>
+        <v>0.0434321396367405</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.0326695277680518</v>
+        <v>0.03266952776805</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.00990198476596227</v>
+        <v>0.00990198476596049</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.0217981053999097</v>
+        <v>-0.0217981053999114</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.0620430790992472</v>
+        <v>-0.062043079099249</v>
       </c>
     </row>
   </sheetData>
@@ -2590,7 +2593,7 @@
         <v>9.75238481820359</v>
       </c>
       <c r="K2" t="n">
-        <v>9.87861816798216</v>
+        <v>9.87861816798214</v>
       </c>
       <c r="L2" t="n">
         <v>9.93753549889862</v>
@@ -2605,10 +2608,10 @@
         <v>9.98018935748616</v>
       </c>
       <c r="P2" t="n">
-        <v>9.98866667549106</v>
+        <v>9.98866667549107</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.99708185673958</v>
+        <v>9.99708185673959</v>
       </c>
       <c r="R2" t="n">
         <v>9.99995746111664</v>
@@ -2656,7 +2659,7 @@
         <v>10.3613321396367</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.4018695277681</v>
+        <v>10.401869527768</v>
       </c>
       <c r="AH2" t="n">
         <v>10.423801984766</v>
@@ -2679,13 +2682,13 @@
         <v>78</v>
       </c>
       <c r="D3" t="n">
-        <v>4.19957407331288e-16</v>
+        <v>0.000000000000000419957407331288</v>
       </c>
       <c r="E3" t="n">
         <v>0.00425520873514612</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.00725737630883129</v>
+        <v>-0.00725737630883109</v>
       </c>
       <c r="G3" t="n">
         <v>-0.0134027110367655</v>
@@ -2694,49 +2697,49 @@
         <v>-0.0133383393892333</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.00462761522804188</v>
+        <v>-0.0046276152280417</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00558710051386711</v>
+        <v>0.00558710051386729</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00870159168237393</v>
+        <v>0.0087015916823723</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00552828612033103</v>
+        <v>0.00552828612033121</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00356574225178492</v>
+        <v>0.0035657422517851</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00194333038031965</v>
+        <v>0.00194333038031983</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00116258626950211</v>
+        <v>0.00116258626950229</v>
       </c>
       <c r="P3" t="n">
-        <v>0.000477436221422893</v>
+        <v>0.000477436221423071</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.00021183127254343</v>
+        <v>-0.000211831272543252</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.000474031093722257</v>
+        <v>-0.00047403109372208</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.000874740944299951</v>
+        <v>-0.000874740944299774</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.00166320861266657</v>
+        <v>-0.00166320861266675</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.00230383455768161</v>
+        <v>-0.00230383455768143</v>
       </c>
       <c r="V3" t="n">
         <v>-0.00235807455789055</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.00260254004897885</v>
+        <v>-0.00260254004897867</v>
       </c>
       <c r="X3" t="n">
         <v>-0.00244082932952432</v>
@@ -2751,31 +2754,31 @@
         <v>-0.000707419377915567</v>
       </c>
       <c r="AB3" t="n">
-        <v>-6.64568968416821e-05</v>
+        <v>-0.0000664568968418562</v>
       </c>
       <c r="AC3" t="n">
         <v>0.00125711760125521</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.00222418486766429</v>
+        <v>0.00222418486766412</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.00334472904241705</v>
+        <v>0.00334472904241687</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.00420939722586401</v>
+        <v>0.00420939722586384</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.00315063146318441</v>
+        <v>0.00315063146318424</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.000950843081454812</v>
+        <v>0.000950843081454642</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.00208365008841081</v>
+        <v>-0.00208365008841098</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.00590110893294976</v>
+        <v>-0.00590110893294993</v>
       </c>
     </row>
   </sheetData>
